--- a/report_ca_nhan/OUTSIDE/NV-34 Bác Sĩ Ngoài 7-2024.xlsx
+++ b/report_ca_nhan/OUTSIDE/NV-34 Bác Sĩ Ngoài 7-2024.xlsx
@@ -728,7 +728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,37 +961,71 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="C3" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1000000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-488</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>khanh ktv cũ</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Khách cửa hàng</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
       <c r="K3" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>7900000</v>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="N3" t="n">
-        <v>7000000</v>
+        <v>7900000</v>
       </c>
       <c r="O3" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>1000000</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
+      </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
@@ -1008,12 +1042,71 @@
         <v>0.1</v>
       </c>
       <c r="W3" t="n">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>14900000</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14900000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>300000</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0</v>
       </c>
     </row>
